--- a/Excel Files/HP_WSI-CoordAnnotatedPatches.xlsx
+++ b/Excel Files/HP_WSI-CoordAnnotatedPatches.xlsx
@@ -3389,13 +3389,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3806,7 +3806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
